--- a/data/pca/factorExposure/factorExposure_2016-10-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01711884321554077</v>
+        <v>0.01311288088674945</v>
       </c>
       <c r="C2">
-        <v>0.04491049951730044</v>
+        <v>0.03952445019824194</v>
       </c>
       <c r="D2">
-        <v>-0.03520176790053343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05957885686742562</v>
+      </c>
+      <c r="E2">
+        <v>-0.04937264048209804</v>
+      </c>
+      <c r="F2">
+        <v>0.08630391314760441</v>
+      </c>
+      <c r="G2">
+        <v>-0.02807641950540001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05678104454178145</v>
+        <v>0.03269449626164921</v>
       </c>
       <c r="C3">
-        <v>0.09557033751200236</v>
+        <v>0.0821925333409957</v>
       </c>
       <c r="D3">
-        <v>-0.05877456523328316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09965725863629218</v>
+      </c>
+      <c r="E3">
+        <v>-0.07251865400067917</v>
+      </c>
+      <c r="F3">
+        <v>0.03019873867669405</v>
+      </c>
+      <c r="G3">
+        <v>0.05446283806835322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06392853055534875</v>
+        <v>0.05582173331027547</v>
       </c>
       <c r="C4">
-        <v>0.05894925893772534</v>
+        <v>0.06263725809616953</v>
       </c>
       <c r="D4">
-        <v>-0.02529253639596174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05962615883550299</v>
+      </c>
+      <c r="E4">
+        <v>-0.044996299896675</v>
+      </c>
+      <c r="F4">
+        <v>0.07874551969004651</v>
+      </c>
+      <c r="G4">
+        <v>0.04233502360669995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02916875564617222</v>
+        <v>0.03432923137607388</v>
       </c>
       <c r="C6">
-        <v>0.04307671440984818</v>
+        <v>0.03524241360507</v>
       </c>
       <c r="D6">
-        <v>-0.02799643256783474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06587340853929607</v>
+      </c>
+      <c r="E6">
+        <v>-0.0576908317896437</v>
+      </c>
+      <c r="F6">
+        <v>0.070587219825809</v>
+      </c>
+      <c r="G6">
+        <v>0.02107896363723946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02428881323625853</v>
+        <v>0.02000360391930625</v>
       </c>
       <c r="C7">
-        <v>0.03739935443113428</v>
+        <v>0.03582098035193867</v>
       </c>
       <c r="D7">
-        <v>0.002681182063323319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03860758595963089</v>
+      </c>
+      <c r="E7">
+        <v>-0.03216946434468469</v>
+      </c>
+      <c r="F7">
+        <v>0.1116171279701583</v>
+      </c>
+      <c r="G7">
+        <v>0.01314139585229751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00143763751520523</v>
+        <v>0.004640615427483162</v>
       </c>
       <c r="C8">
-        <v>0.01244357340024408</v>
+        <v>0.02001037134872344</v>
       </c>
       <c r="D8">
-        <v>-0.01349092137091799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03625888762828045</v>
+      </c>
+      <c r="E8">
+        <v>-0.03462225883985592</v>
+      </c>
+      <c r="F8">
+        <v>0.05588368469302188</v>
+      </c>
+      <c r="G8">
+        <v>0.011089205592005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02869183390774547</v>
+        <v>0.03491295818269259</v>
       </c>
       <c r="C9">
-        <v>0.0408536740496622</v>
+        <v>0.04898526731120232</v>
       </c>
       <c r="D9">
-        <v>-0.0183429268664124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0441660064085094</v>
+      </c>
+      <c r="E9">
+        <v>-0.03693653306340579</v>
+      </c>
+      <c r="F9">
+        <v>0.08725268641128225</v>
+      </c>
+      <c r="G9">
+        <v>0.0259666317186955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07561454441459393</v>
+        <v>0.1020042443247764</v>
       </c>
       <c r="C10">
-        <v>-0.1953039409513962</v>
+        <v>-0.1889668715468859</v>
       </c>
       <c r="D10">
-        <v>-0.01130078048653596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001196201846037983</v>
+      </c>
+      <c r="E10">
+        <v>-0.04137347912597546</v>
+      </c>
+      <c r="F10">
+        <v>0.03918986287536327</v>
+      </c>
+      <c r="G10">
+        <v>0.008099899877402006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04227720966857316</v>
+        <v>0.03538563675113084</v>
       </c>
       <c r="C11">
-        <v>0.05383976769315522</v>
+        <v>0.0511402941677318</v>
       </c>
       <c r="D11">
-        <v>-0.0005825212824038403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03252934593185412</v>
+      </c>
+      <c r="E11">
+        <v>-0.004903193705486099</v>
+      </c>
+      <c r="F11">
+        <v>0.06573036510248161</v>
+      </c>
+      <c r="G11">
+        <v>0.01831273559291817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03560170212654716</v>
+        <v>0.03572271757286147</v>
       </c>
       <c r="C12">
-        <v>0.04389662875375532</v>
+        <v>0.0460699630015759</v>
       </c>
       <c r="D12">
-        <v>-0.001438296931573184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02541575566213871</v>
+      </c>
+      <c r="E12">
+        <v>-0.01315683782393028</v>
+      </c>
+      <c r="F12">
+        <v>0.06680502750502076</v>
+      </c>
+      <c r="G12">
+        <v>0.01345616192303024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01092705774487777</v>
+        <v>0.01131555260632073</v>
       </c>
       <c r="C13">
-        <v>0.04361769124338362</v>
+        <v>0.04108298018456661</v>
       </c>
       <c r="D13">
-        <v>-0.02340475010791238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06499380661059191</v>
+      </c>
+      <c r="E13">
+        <v>-0.06358313203617064</v>
+      </c>
+      <c r="F13">
+        <v>0.1164110891815007</v>
+      </c>
+      <c r="G13">
+        <v>0.02306652857752197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00738740257324988</v>
+        <v>0.004918975089676925</v>
       </c>
       <c r="C14">
-        <v>0.03191702117492918</v>
+        <v>0.02868443478481223</v>
       </c>
       <c r="D14">
-        <v>0.01417330821398172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03002735400748369</v>
+      </c>
+      <c r="E14">
+        <v>-0.02428876189828783</v>
+      </c>
+      <c r="F14">
+        <v>0.09742730438251904</v>
+      </c>
+      <c r="G14">
+        <v>-0.002789804795797668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001416160428514518</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001151245460620891</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001628407270484683</v>
+      </c>
+      <c r="E15">
+        <v>7.993434156060595e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.00100766578154601</v>
+      </c>
+      <c r="G15">
+        <v>-0.0009225192057013804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03460233785032852</v>
+        <v>0.03239771864851129</v>
       </c>
       <c r="C16">
-        <v>0.03946799420089762</v>
+        <v>0.04483374327315846</v>
       </c>
       <c r="D16">
-        <v>-0.005200585402016989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02805401297497872</v>
+      </c>
+      <c r="E16">
+        <v>-0.01852991158450764</v>
+      </c>
+      <c r="F16">
+        <v>0.06945760566529469</v>
+      </c>
+      <c r="G16">
+        <v>0.00446332217526029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03175389444825025</v>
+        <v>0.01706709169317347</v>
       </c>
       <c r="C19">
-        <v>0.05866699116060581</v>
+        <v>0.04974805470989568</v>
       </c>
       <c r="D19">
-        <v>-0.07182046919211944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1045434201506284</v>
+      </c>
+      <c r="E19">
+        <v>-0.0837534313699775</v>
+      </c>
+      <c r="F19">
+        <v>0.1062161537400841</v>
+      </c>
+      <c r="G19">
+        <v>-0.01606376974207064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01530033727973417</v>
+        <v>0.01292570164353125</v>
       </c>
       <c r="C20">
-        <v>0.04282746254992567</v>
+        <v>0.0399257599210617</v>
       </c>
       <c r="D20">
-        <v>-0.02123820699130009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04150992459458271</v>
+      </c>
+      <c r="E20">
+        <v>-0.05506803299412915</v>
+      </c>
+      <c r="F20">
+        <v>0.09213838351825461</v>
+      </c>
+      <c r="G20">
+        <v>0.009025675203810158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009874448652566181</v>
+        <v>0.006076116843179716</v>
       </c>
       <c r="C21">
-        <v>0.04887447098858095</v>
+        <v>0.04133652085270144</v>
       </c>
       <c r="D21">
-        <v>-0.04163368317969555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07091866335941491</v>
+      </c>
+      <c r="E21">
+        <v>-0.06582238858381881</v>
+      </c>
+      <c r="F21">
+        <v>0.1325201099026403</v>
+      </c>
+      <c r="G21">
+        <v>0.009167062386174565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002475263056624136</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01551892800900777</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0303358699960381</v>
+      </c>
+      <c r="E22">
+        <v>-0.01212969320839238</v>
+      </c>
+      <c r="F22">
+        <v>0.01239443346051542</v>
+      </c>
+      <c r="G22">
+        <v>0.03518871695363325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002524840634923309</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01548747478690862</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03002431041194563</v>
+      </c>
+      <c r="E23">
+        <v>-0.01235308345147863</v>
+      </c>
+      <c r="F23">
+        <v>0.01209283228549859</v>
+      </c>
+      <c r="G23">
+        <v>0.03514774085183068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03028115561638234</v>
+        <v>0.03126863990004582</v>
       </c>
       <c r="C24">
-        <v>0.04609544730130743</v>
+        <v>0.05132076785032728</v>
       </c>
       <c r="D24">
-        <v>-0.002141818577129116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02603491729548025</v>
+      </c>
+      <c r="E24">
+        <v>-0.01460431692406036</v>
+      </c>
+      <c r="F24">
+        <v>0.07625599517321534</v>
+      </c>
+      <c r="G24">
+        <v>0.01139830876017755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04732206863997246</v>
+        <v>0.04116751848219451</v>
       </c>
       <c r="C25">
-        <v>0.0565005077800048</v>
+        <v>0.05761265787379281</v>
       </c>
       <c r="D25">
-        <v>0.009840240555948761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02464550850769025</v>
+      </c>
+      <c r="E25">
+        <v>-0.01064663600187807</v>
+      </c>
+      <c r="F25">
+        <v>0.07815217100914362</v>
+      </c>
+      <c r="G25">
+        <v>0.0284460396351019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009566303737496814</v>
+        <v>0.01300647859217532</v>
       </c>
       <c r="C26">
-        <v>0.01668984224685804</v>
+        <v>0.01570307167310578</v>
       </c>
       <c r="D26">
-        <v>-0.008585370966961783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02555141585324318</v>
+      </c>
+      <c r="E26">
+        <v>-0.02579008635591473</v>
+      </c>
+      <c r="F26">
+        <v>0.07539008049873834</v>
+      </c>
+      <c r="G26">
+        <v>-0.01040333232442245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08956464925013771</v>
+        <v>0.1345979120670731</v>
       </c>
       <c r="C28">
-        <v>-0.2240120430425917</v>
+        <v>-0.2368733549624253</v>
       </c>
       <c r="D28">
-        <v>-0.007805959824512326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01685875396893931</v>
+      </c>
+      <c r="E28">
+        <v>-0.04184155152664833</v>
+      </c>
+      <c r="F28">
+        <v>0.05060268099965282</v>
+      </c>
+      <c r="G28">
+        <v>0.01976764843570799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01208573607914453</v>
+        <v>0.006494675405009243</v>
       </c>
       <c r="C29">
-        <v>0.02448891350896971</v>
+        <v>0.02471805768381033</v>
       </c>
       <c r="D29">
-        <v>0.01255472636829889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02024070774424444</v>
+      </c>
+      <c r="E29">
+        <v>-0.02735147841115916</v>
+      </c>
+      <c r="F29">
+        <v>0.08683011831032593</v>
+      </c>
+      <c r="G29">
+        <v>0.008504491054948923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05009264405480604</v>
+        <v>0.03779160618700515</v>
       </c>
       <c r="C30">
-        <v>0.06618290814440718</v>
+        <v>0.06194630816179692</v>
       </c>
       <c r="D30">
-        <v>-0.04189617826657294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.104451716597467</v>
+      </c>
+      <c r="E30">
+        <v>-0.03469793707305081</v>
+      </c>
+      <c r="F30">
+        <v>0.1005093115956275</v>
+      </c>
+      <c r="G30">
+        <v>-0.01336696820459469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04321857291450408</v>
+        <v>0.05346375360084199</v>
       </c>
       <c r="C31">
-        <v>0.03025910800846874</v>
+        <v>0.04925716236532724</v>
       </c>
       <c r="D31">
-        <v>0.01387003821339068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004161980108659267</v>
+      </c>
+      <c r="E31">
+        <v>-0.04309078336284687</v>
+      </c>
+      <c r="F31">
+        <v>0.0825674966462369</v>
+      </c>
+      <c r="G31">
+        <v>0.0485561513499615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00322507945456923</v>
+        <v>0.003073139946953758</v>
       </c>
       <c r="C32">
-        <v>0.04648046879025975</v>
+        <v>0.02996554835317171</v>
       </c>
       <c r="D32">
-        <v>-0.02872950592062162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0522563870742818</v>
+      </c>
+      <c r="E32">
+        <v>-0.01924812376175042</v>
+      </c>
+      <c r="F32">
+        <v>0.07053322790794361</v>
+      </c>
+      <c r="G32">
+        <v>-0.008227051925744338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02864160960063767</v>
+        <v>0.02381516978014526</v>
       </c>
       <c r="C33">
-        <v>0.06187326235909996</v>
+        <v>0.05205577652936293</v>
       </c>
       <c r="D33">
-        <v>-0.02751633373928299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08174770554242711</v>
+      </c>
+      <c r="E33">
+        <v>-0.04715298091301105</v>
+      </c>
+      <c r="F33">
+        <v>0.1292090555801041</v>
+      </c>
+      <c r="G33">
+        <v>0.02760706627607957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05135068336907959</v>
+        <v>0.04067631582089695</v>
       </c>
       <c r="C34">
-        <v>0.05395294897514363</v>
+        <v>0.06362410363879957</v>
       </c>
       <c r="D34">
-        <v>0.008813560382462974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03271275555401949</v>
+      </c>
+      <c r="E34">
+        <v>0.004847054096920897</v>
+      </c>
+      <c r="F34">
+        <v>0.07540773535571579</v>
+      </c>
+      <c r="G34">
+        <v>0.01698800368219724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008837194102966539</v>
+        <v>0.01444192729386057</v>
       </c>
       <c r="C36">
-        <v>0.01140368807786077</v>
+        <v>0.01010357092894345</v>
       </c>
       <c r="D36">
-        <v>-0.00759122502544555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02709017834798648</v>
+      </c>
+      <c r="E36">
+        <v>-0.0330861965102784</v>
+      </c>
+      <c r="F36">
+        <v>0.08422284770271338</v>
+      </c>
+      <c r="G36">
+        <v>0.01443860647761958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03420267558816591</v>
+        <v>0.02619421404061567</v>
       </c>
       <c r="C38">
-        <v>0.02297681470339908</v>
+        <v>0.02258415062099671</v>
       </c>
       <c r="D38">
-        <v>-0.001820441721141461</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02698744740371942</v>
+      </c>
+      <c r="E38">
+        <v>-0.03463158531727879</v>
+      </c>
+      <c r="F38">
+        <v>0.07090573506610302</v>
+      </c>
+      <c r="G38">
+        <v>0.01053495643652925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04197316194286541</v>
+        <v>0.03688408705056889</v>
       </c>
       <c r="C39">
-        <v>0.07077110854625168</v>
+        <v>0.0665521072924196</v>
       </c>
       <c r="D39">
-        <v>-0.02473419248053128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05115776070749135</v>
+      </c>
+      <c r="E39">
+        <v>-0.01646848381558205</v>
+      </c>
+      <c r="F39">
+        <v>0.09158556441765298</v>
+      </c>
+      <c r="G39">
+        <v>-0.01274973214317648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01810241476233633</v>
+        <v>0.01640946865259675</v>
       </c>
       <c r="C40">
-        <v>0.02807826311650468</v>
+        <v>0.03629591450687156</v>
       </c>
       <c r="D40">
-        <v>-0.03618236129611468</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03875370471921188</v>
+      </c>
+      <c r="E40">
+        <v>-0.07008529450828627</v>
+      </c>
+      <c r="F40">
+        <v>0.09139705480867177</v>
+      </c>
+      <c r="G40">
+        <v>0.05062722544885855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01057314420855243</v>
+        <v>0.01790417311110303</v>
       </c>
       <c r="C41">
-        <v>0.00298500951513603</v>
+        <v>0.004065959295372125</v>
       </c>
       <c r="D41">
-        <v>-0.000860740665088587</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01846407150736403</v>
+      </c>
+      <c r="E41">
+        <v>-0.03472905922465178</v>
+      </c>
+      <c r="F41">
+        <v>0.07416484176980141</v>
+      </c>
+      <c r="G41">
+        <v>0.00722862477407923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006927063565229087</v>
+        <v>0.003585240928285605</v>
       </c>
       <c r="C42">
-        <v>0.0128500511901241</v>
+        <v>0.007254001908607716</v>
       </c>
       <c r="D42">
-        <v>-0.006496923891706469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0001080808642454977</v>
+      </c>
+      <c r="E42">
+        <v>-0.004436145685758408</v>
+      </c>
+      <c r="F42">
+        <v>-0.01557926515261579</v>
+      </c>
+      <c r="G42">
+        <v>0.01071100580291589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03192630553200894</v>
+        <v>0.03042394202257048</v>
       </c>
       <c r="C43">
-        <v>0.01619659683734045</v>
+        <v>0.01872696738995336</v>
       </c>
       <c r="D43">
-        <v>-0.008836331972481414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04152071193723176</v>
+      </c>
+      <c r="E43">
+        <v>-0.03991356420476161</v>
+      </c>
+      <c r="F43">
+        <v>0.08904927968289021</v>
+      </c>
+      <c r="G43">
+        <v>0.02886265059449085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02198124792107839</v>
+        <v>0.01519266870017738</v>
       </c>
       <c r="C44">
-        <v>0.05296498400601062</v>
+        <v>0.04958167802084726</v>
       </c>
       <c r="D44">
-        <v>-0.01989879701469707</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04274764318272298</v>
+      </c>
+      <c r="E44">
+        <v>-0.05663851210961295</v>
+      </c>
+      <c r="F44">
+        <v>0.0958040744844708</v>
+      </c>
+      <c r="G44">
+        <v>0.002894588605407738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0001127466702452913</v>
+        <v>0.006962058315043937</v>
       </c>
       <c r="C46">
-        <v>0.01841549271290123</v>
+        <v>0.02254296566116635</v>
       </c>
       <c r="D46">
-        <v>0.01389499214933784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01421757876019807</v>
+      </c>
+      <c r="E46">
+        <v>-0.03088185332078044</v>
+      </c>
+      <c r="F46">
+        <v>0.1019714874637201</v>
+      </c>
+      <c r="G46">
+        <v>0.004548965610730413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07753989405144841</v>
+        <v>0.08508255399597836</v>
       </c>
       <c r="C47">
-        <v>0.07085146523821416</v>
+        <v>0.07710138502829662</v>
       </c>
       <c r="D47">
-        <v>0.01066487094036475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01220961616613549</v>
+      </c>
+      <c r="E47">
+        <v>-0.0497275625691044</v>
+      </c>
+      <c r="F47">
+        <v>0.08028392929390761</v>
+      </c>
+      <c r="G47">
+        <v>0.050380415146165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01982761648708918</v>
+        <v>0.01572344376028437</v>
       </c>
       <c r="C48">
-        <v>0.01034051383877566</v>
+        <v>0.01564019649116686</v>
       </c>
       <c r="D48">
-        <v>-0.002096796153402546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01769989674064753</v>
+      </c>
+      <c r="E48">
+        <v>-0.04246196608575809</v>
+      </c>
+      <c r="F48">
+        <v>0.09716572140285594</v>
+      </c>
+      <c r="G48">
+        <v>0.0125241968482112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08887913591547375</v>
+        <v>0.07125402896150121</v>
       </c>
       <c r="C50">
-        <v>0.06406866882707166</v>
+        <v>0.06823989136672091</v>
       </c>
       <c r="D50">
-        <v>0.01576345168628097</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001406796556723465</v>
+      </c>
+      <c r="E50">
+        <v>-0.0478232802153606</v>
+      </c>
+      <c r="F50">
+        <v>0.06827599247185202</v>
+      </c>
+      <c r="G50">
+        <v>0.07856371320074775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01296544066217403</v>
+        <v>0.009605142696433238</v>
       </c>
       <c r="C51">
-        <v>0.04734364644228381</v>
+        <v>0.03383853751104587</v>
       </c>
       <c r="D51">
-        <v>-0.009391851856682332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04851289935823063</v>
+      </c>
+      <c r="E51">
+        <v>-0.0190018394140939</v>
+      </c>
+      <c r="F51">
+        <v>0.08816713369895943</v>
+      </c>
+      <c r="G51">
+        <v>-0.01175070891062321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0959373503125192</v>
+        <v>0.09025361935699731</v>
       </c>
       <c r="C53">
-        <v>0.07212835278431495</v>
+        <v>0.08739322278549201</v>
       </c>
       <c r="D53">
-        <v>0.03510085631005355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03828403305328985</v>
+      </c>
+      <c r="E53">
+        <v>-0.04963510382918711</v>
+      </c>
+      <c r="F53">
+        <v>0.08818906168584406</v>
+      </c>
+      <c r="G53">
+        <v>0.06221264260496033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0297018677389723</v>
+        <v>0.02811170363969749</v>
       </c>
       <c r="C54">
-        <v>0.01529987335054536</v>
+        <v>0.0246928890936387</v>
       </c>
       <c r="D54">
-        <v>-0.008458411424035028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03590115960325494</v>
+      </c>
+      <c r="E54">
+        <v>-0.03565503638896333</v>
+      </c>
+      <c r="F54">
+        <v>0.09857829058545201</v>
+      </c>
+      <c r="G54">
+        <v>0.007841342218898827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07487424697007199</v>
+        <v>0.08151819305584135</v>
       </c>
       <c r="C55">
-        <v>0.06844332947428312</v>
+        <v>0.07138849807763363</v>
       </c>
       <c r="D55">
-        <v>0.03810736325239988</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04625918890242026</v>
+      </c>
+      <c r="E55">
+        <v>-0.04057518580375949</v>
+      </c>
+      <c r="F55">
+        <v>0.06277452748751822</v>
+      </c>
+      <c r="G55">
+        <v>0.05103466128930455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1498621939347153</v>
+        <v>0.1439842836084213</v>
       </c>
       <c r="C56">
-        <v>0.09184234738575696</v>
+        <v>0.1044936140939653</v>
       </c>
       <c r="D56">
-        <v>0.04181593939097952</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0489531153745725</v>
+      </c>
+      <c r="E56">
+        <v>-0.04776315555226154</v>
+      </c>
+      <c r="F56">
+        <v>0.05463629231224781</v>
+      </c>
+      <c r="G56">
+        <v>0.05792211735987296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.004951887780309567</v>
+        <v>0.002101353978138126</v>
       </c>
       <c r="C57">
-        <v>0.002930399620993232</v>
+        <v>0.001611536718490213</v>
       </c>
       <c r="D57">
-        <v>-0.01959421913542305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01678290265842884</v>
+      </c>
+      <c r="E57">
+        <v>-0.008554233740076614</v>
+      </c>
+      <c r="F57">
+        <v>0.01400913446262223</v>
+      </c>
+      <c r="G57">
+        <v>0.002843661963448205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.07385885325314548</v>
+        <v>0.03229360968708001</v>
       </c>
       <c r="C58">
-        <v>0.03786908951770687</v>
+        <v>0.03012625374350809</v>
       </c>
       <c r="D58">
-        <v>-0.9483691058984076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.499703662201428</v>
+      </c>
+      <c r="E58">
+        <v>-0.6920251754916368</v>
+      </c>
+      <c r="F58">
+        <v>-0.4311283883725705</v>
+      </c>
+      <c r="G58">
+        <v>-0.06503040983386191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1323545275218692</v>
+        <v>0.1493904460834445</v>
       </c>
       <c r="C59">
-        <v>-0.2055247578119247</v>
+        <v>-0.1876255777884137</v>
       </c>
       <c r="D59">
-        <v>-0.02156239718925091</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02908405311989647</v>
+      </c>
+      <c r="E59">
+        <v>-0.02150564456298937</v>
+      </c>
+      <c r="F59">
+        <v>0.02217750724729793</v>
+      </c>
+      <c r="G59">
+        <v>-0.02961931017302482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3146824401605329</v>
+        <v>0.2819432679524498</v>
       </c>
       <c r="C60">
-        <v>0.08334769633362141</v>
+        <v>0.102052014677842</v>
       </c>
       <c r="D60">
-        <v>-0.00306025133918136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2088638022878723</v>
+      </c>
+      <c r="E60">
+        <v>0.2773978222602274</v>
+      </c>
+      <c r="F60">
+        <v>-0.1265426500419323</v>
+      </c>
+      <c r="G60">
+        <v>0.04351334540730736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03732500437650567</v>
+        <v>0.03908786408132967</v>
       </c>
       <c r="C61">
-        <v>0.06087714231090937</v>
+        <v>0.06062598035728523</v>
       </c>
       <c r="D61">
-        <v>-0.01462453219818345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04681283489584747</v>
+      </c>
+      <c r="E61">
+        <v>-0.02183820499461404</v>
+      </c>
+      <c r="F61">
+        <v>0.08231608582945001</v>
+      </c>
+      <c r="G61">
+        <v>0.01615358369767263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01659181798026532</v>
+        <v>0.01502627901492752</v>
       </c>
       <c r="C63">
-        <v>0.03238468185458959</v>
+        <v>0.03101354663033675</v>
       </c>
       <c r="D63">
-        <v>0.001015650207756243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0211076320526494</v>
+      </c>
+      <c r="E63">
+        <v>-0.03610086198255644</v>
+      </c>
+      <c r="F63">
+        <v>0.07592345122749027</v>
+      </c>
+      <c r="G63">
+        <v>0.03189966210531046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04948458396441843</v>
+        <v>0.05269962616474613</v>
       </c>
       <c r="C64">
-        <v>0.02710965302115551</v>
+        <v>0.05236973800930259</v>
       </c>
       <c r="D64">
-        <v>0.003253493444485374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01383658337895072</v>
+      </c>
+      <c r="E64">
+        <v>-0.01720698503967729</v>
+      </c>
+      <c r="F64">
+        <v>0.08726445697638005</v>
+      </c>
+      <c r="G64">
+        <v>0.009521575093183422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09407033353643997</v>
+        <v>0.06723589721840165</v>
       </c>
       <c r="C65">
-        <v>0.04835414005153093</v>
+        <v>0.04093318515608961</v>
       </c>
       <c r="D65">
-        <v>-0.03125093864837997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08256853422900133</v>
+      </c>
+      <c r="E65">
+        <v>-0.03496888633080938</v>
+      </c>
+      <c r="F65">
+        <v>0.02634717243599796</v>
+      </c>
+      <c r="G65">
+        <v>-0.002749491801540679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06519845647088782</v>
+        <v>0.04975218995183198</v>
       </c>
       <c r="C66">
-        <v>0.1068698827535534</v>
+        <v>0.09018358347596955</v>
       </c>
       <c r="D66">
-        <v>-0.02939894993453841</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07730374770931558</v>
+      </c>
+      <c r="E66">
+        <v>-0.01996308656274839</v>
+      </c>
+      <c r="F66">
+        <v>0.09238672109939666</v>
+      </c>
+      <c r="G66">
+        <v>0.006020845179494242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05863959782842936</v>
+        <v>0.04861947170021221</v>
       </c>
       <c r="C67">
-        <v>0.02802670287237269</v>
+        <v>0.02921858589865219</v>
       </c>
       <c r="D67">
-        <v>0.007249759973496621</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01450287096156504</v>
+      </c>
+      <c r="E67">
+        <v>-0.01999478632407976</v>
+      </c>
+      <c r="F67">
+        <v>0.05740147134896684</v>
+      </c>
+      <c r="G67">
+        <v>0.01503043370888959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1176073484653019</v>
+        <v>0.1573701548049793</v>
       </c>
       <c r="C68">
-        <v>-0.2930013256090628</v>
+        <v>-0.2568478099403113</v>
       </c>
       <c r="D68">
-        <v>-0.003060139969050515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02191340220977166</v>
+      </c>
+      <c r="E68">
+        <v>-0.03661907409049928</v>
+      </c>
+      <c r="F68">
+        <v>0.01688274897180301</v>
+      </c>
+      <c r="G68">
+        <v>0.007755217280784302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08673768158324545</v>
+        <v>0.08498949936580391</v>
       </c>
       <c r="C69">
-        <v>0.06662872122270398</v>
+        <v>0.0832049526391713</v>
       </c>
       <c r="D69">
-        <v>0.03624122716290866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008511694410148721</v>
+      </c>
+      <c r="E69">
+        <v>-0.02307829404385741</v>
+      </c>
+      <c r="F69">
+        <v>0.09502070955478341</v>
+      </c>
+      <c r="G69">
+        <v>0.02786760491588034</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1186530133430529</v>
+        <v>0.1455391817753291</v>
       </c>
       <c r="C71">
-        <v>-0.2442560130499446</v>
+        <v>-0.2313269103052607</v>
       </c>
       <c r="D71">
-        <v>-0.01745363308759732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01193997259339657</v>
+      </c>
+      <c r="E71">
+        <v>-0.05430951104022962</v>
+      </c>
+      <c r="F71">
+        <v>0.05507752762426787</v>
+      </c>
+      <c r="G71">
+        <v>0.0308815196143863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08370387489398814</v>
+        <v>0.09468956637827972</v>
       </c>
       <c r="C72">
-        <v>0.04704423380822777</v>
+        <v>0.05482445890708301</v>
       </c>
       <c r="D72">
-        <v>0.02057494652120999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01718771174193182</v>
+      </c>
+      <c r="E72">
+        <v>-0.007008704400397018</v>
+      </c>
+      <c r="F72">
+        <v>0.07632884569615966</v>
+      </c>
+      <c r="G72">
+        <v>0.02431209401781284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4408827775015645</v>
+        <v>0.3488790309523401</v>
       </c>
       <c r="C73">
-        <v>0.06526202136291065</v>
+        <v>0.08474799369361327</v>
       </c>
       <c r="D73">
-        <v>-0.06714466557216107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4267932911399413</v>
+      </c>
+      <c r="E73">
+        <v>0.4795811188292109</v>
+      </c>
+      <c r="F73">
+        <v>-0.305791958539927</v>
+      </c>
+      <c r="G73">
+        <v>0.08632193144303107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1206537824640779</v>
+        <v>0.1109801592161719</v>
       </c>
       <c r="C74">
-        <v>0.1139827788227136</v>
+        <v>0.1028577950453606</v>
       </c>
       <c r="D74">
-        <v>0.01503778871989725</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02656380930060203</v>
+      </c>
+      <c r="E74">
+        <v>-0.06699224424621576</v>
+      </c>
+      <c r="F74">
+        <v>0.06198015819779408</v>
+      </c>
+      <c r="G74">
+        <v>0.07483058175259041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2604865598310795</v>
+        <v>0.2548676247517818</v>
       </c>
       <c r="C75">
-        <v>0.1283263899155045</v>
+        <v>0.1455488669448481</v>
       </c>
       <c r="D75">
-        <v>0.07306497418069498</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1266671261795821</v>
+      </c>
+      <c r="E75">
+        <v>-0.08171653435952926</v>
+      </c>
+      <c r="F75">
+        <v>0.02714252245766495</v>
+      </c>
+      <c r="G75">
+        <v>0.07592811890352798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.121226243124922</v>
+        <v>0.1267723662467011</v>
       </c>
       <c r="C76">
-        <v>0.1045492595000908</v>
+        <v>0.1078004388702822</v>
       </c>
       <c r="D76">
-        <v>0.04898486608298252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06107976719215196</v>
+      </c>
+      <c r="E76">
+        <v>-0.06950160862115495</v>
+      </c>
+      <c r="F76">
+        <v>0.0694103836932589</v>
+      </c>
+      <c r="G76">
+        <v>0.06421711080391743</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07488305672635046</v>
+        <v>0.06071227159392338</v>
       </c>
       <c r="C77">
-        <v>0.05838928198462953</v>
+        <v>0.06705885972202641</v>
       </c>
       <c r="D77">
-        <v>-0.04465368454015489</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06451955277588707</v>
+      </c>
+      <c r="E77">
+        <v>-0.06360912091633691</v>
+      </c>
+      <c r="F77">
+        <v>0.1220485382774335</v>
+      </c>
+      <c r="G77">
+        <v>-0.1267011262770239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04262774365437982</v>
+        <v>0.03993752295374693</v>
       </c>
       <c r="C78">
-        <v>0.04369954335207046</v>
+        <v>0.05208836884687068</v>
       </c>
       <c r="D78">
-        <v>-0.01365536792893843</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07103677946512565</v>
+      </c>
+      <c r="E78">
+        <v>-0.01376365685006121</v>
+      </c>
+      <c r="F78">
+        <v>0.0954519789937999</v>
+      </c>
+      <c r="G78">
+        <v>0.008338364169995201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01288239844739504</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0334889042853807</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04675293081677481</v>
+      </c>
+      <c r="E79">
+        <v>-0.03341331095799847</v>
+      </c>
+      <c r="F79">
+        <v>0.0234943630699886</v>
+      </c>
+      <c r="G79">
+        <v>0.04327179446043813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04997210708957222</v>
+        <v>0.03642820402762643</v>
       </c>
       <c r="C80">
-        <v>0.0509139458694621</v>
+        <v>0.04939551776021445</v>
       </c>
       <c r="D80">
-        <v>-0.03737596575939291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04443684796276162</v>
+      </c>
+      <c r="E80">
+        <v>-0.01272892554891192</v>
+      </c>
+      <c r="F80">
+        <v>0.03463132424176431</v>
+      </c>
+      <c r="G80">
+        <v>-0.04112105314358986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1400385312710257</v>
+        <v>0.1394738099838017</v>
       </c>
       <c r="C81">
-        <v>0.07999934094810872</v>
+        <v>0.09953655655118648</v>
       </c>
       <c r="D81">
-        <v>0.03501225982326383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09085925037244563</v>
+      </c>
+      <c r="E81">
+        <v>-0.08067798040459037</v>
+      </c>
+      <c r="F81">
+        <v>0.03101836220393876</v>
+      </c>
+      <c r="G81">
+        <v>0.0592378436450061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.07254797495802486</v>
+        <v>0.1898515084469325</v>
       </c>
       <c r="C82">
-        <v>0.04559826939028029</v>
+        <v>0.1404025859616505</v>
       </c>
       <c r="D82">
-        <v>0.0266823017833667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2236379454965672</v>
+      </c>
+      <c r="E82">
+        <v>-0.0106317029018642</v>
+      </c>
+      <c r="F82">
+        <v>0.08032465746385523</v>
+      </c>
+      <c r="G82">
+        <v>0.0337283080241792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02669430989617967</v>
+        <v>0.02620556575045417</v>
       </c>
       <c r="C83">
-        <v>0.02048401460835848</v>
+        <v>0.03778980901413689</v>
       </c>
       <c r="D83">
-        <v>-0.01635010687066382</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0336563068811895</v>
+      </c>
+      <c r="E83">
+        <v>-0.006941318026809299</v>
+      </c>
+      <c r="F83">
+        <v>0.05270409721493711</v>
+      </c>
+      <c r="G83">
+        <v>-0.02087945343538757</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2390945064183337</v>
+        <v>0.2053379926683155</v>
       </c>
       <c r="C85">
-        <v>0.1147810683900744</v>
+        <v>0.127701726907729</v>
       </c>
       <c r="D85">
-        <v>0.1429102387673858</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1080255140108353</v>
+      </c>
+      <c r="E85">
+        <v>-0.005624455579510528</v>
+      </c>
+      <c r="F85">
+        <v>-0.0183865869775679</v>
+      </c>
+      <c r="G85">
+        <v>0.123637234472715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009107058115253764</v>
+        <v>0.01113309894973454</v>
       </c>
       <c r="C86">
-        <v>0.02565405360604629</v>
+        <v>0.03163174995327237</v>
       </c>
       <c r="D86">
-        <v>-0.0371349816078835</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07857860155635144</v>
+      </c>
+      <c r="E86">
+        <v>-0.04434077476664284</v>
+      </c>
+      <c r="F86">
+        <v>0.14626629813398</v>
+      </c>
+      <c r="G86">
+        <v>-0.004497160465421952</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01441363098327236</v>
+        <v>0.01974505455162856</v>
       </c>
       <c r="C87">
-        <v>0.02423505759104731</v>
+        <v>0.01778861799894473</v>
       </c>
       <c r="D87">
-        <v>-0.07954352606817387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09129206519281231</v>
+      </c>
+      <c r="E87">
+        <v>-0.08120326702298557</v>
+      </c>
+      <c r="F87">
+        <v>0.0985621989834385</v>
+      </c>
+      <c r="G87">
+        <v>-0.03040142028232679</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1027243295472476</v>
+        <v>0.08794391983848054</v>
       </c>
       <c r="C88">
-        <v>0.07053235253823022</v>
+        <v>0.06357248998772996</v>
       </c>
       <c r="D88">
-        <v>0.01304311879459026</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01388736402444718</v>
+      </c>
+      <c r="E88">
+        <v>-0.02916358383199154</v>
+      </c>
+      <c r="F88">
+        <v>0.07333163700050079</v>
+      </c>
+      <c r="G88">
+        <v>-0.02879721038799021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1858567132062075</v>
+        <v>0.2283869218510715</v>
       </c>
       <c r="C89">
-        <v>-0.3771756186177725</v>
+        <v>-0.3831950917799722</v>
       </c>
       <c r="D89">
-        <v>0.03095691062229489</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02067903232914504</v>
+      </c>
+      <c r="E89">
+        <v>-0.03029722470970501</v>
+      </c>
+      <c r="F89">
+        <v>0.09931608890305299</v>
+      </c>
+      <c r="G89">
+        <v>-0.07102816906128145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1743045994141766</v>
+        <v>0.2071719936301768</v>
       </c>
       <c r="C90">
-        <v>-0.3505254848645255</v>
+        <v>-0.316509258279155</v>
       </c>
       <c r="D90">
-        <v>-0.01039385290385645</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01582922629002832</v>
+      </c>
+      <c r="E90">
+        <v>-0.060798582971969</v>
+      </c>
+      <c r="F90">
+        <v>0.05527796175395473</v>
+      </c>
+      <c r="G90">
+        <v>-0.01130312996060849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2031629219551135</v>
+        <v>0.1891300679379418</v>
       </c>
       <c r="C91">
-        <v>0.1135425948864939</v>
+        <v>0.1415025032050607</v>
       </c>
       <c r="D91">
-        <v>0.0638061355873442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1038220299176498</v>
+      </c>
+      <c r="E91">
+        <v>-0.07355618273946833</v>
+      </c>
+      <c r="F91">
+        <v>0.0468777962029002</v>
+      </c>
+      <c r="G91">
+        <v>0.06245710247206605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1675999769150825</v>
+        <v>0.1868641014525566</v>
       </c>
       <c r="C92">
-        <v>-0.2831287471752472</v>
+        <v>-0.2744039151318198</v>
       </c>
       <c r="D92">
-        <v>0.01297954582982508</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009579668456146863</v>
+      </c>
+      <c r="E92">
+        <v>-0.06881904242501882</v>
+      </c>
+      <c r="F92">
+        <v>0.07364845722955378</v>
+      </c>
+      <c r="G92">
+        <v>-0.005863079892101054</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1940460920046131</v>
+        <v>0.2289056762527616</v>
       </c>
       <c r="C93">
-        <v>-0.3441718604087452</v>
+        <v>-0.3147426488158188</v>
       </c>
       <c r="D93">
-        <v>-0.009990495288133044</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003568029752987384</v>
+      </c>
+      <c r="E93">
+        <v>-0.04825652101448777</v>
+      </c>
+      <c r="F93">
+        <v>0.04226289437904535</v>
+      </c>
+      <c r="G93">
+        <v>0.02953166649286683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2929006969489307</v>
+        <v>0.3388304199596541</v>
       </c>
       <c r="C94">
-        <v>0.1481270684716164</v>
+        <v>0.200459434183876</v>
       </c>
       <c r="D94">
-        <v>0.1116331426841867</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4717441964435286</v>
+      </c>
+      <c r="E94">
+        <v>-0.1743936630950018</v>
+      </c>
+      <c r="F94">
+        <v>-0.4308606072955805</v>
+      </c>
+      <c r="G94">
+        <v>-0.3210447120277214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08579721054505157</v>
+        <v>0.08205418075954359</v>
       </c>
       <c r="C95">
-        <v>0.07561132029492575</v>
+        <v>0.076930884806093</v>
       </c>
       <c r="D95">
-        <v>-0.02853798623017478</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.15051103011154</v>
+      </c>
+      <c r="E95">
+        <v>0.1354220436004256</v>
+      </c>
+      <c r="F95">
+        <v>0.2150442364421076</v>
+      </c>
+      <c r="G95">
+        <v>-0.8719897457749495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2046424387376701</v>
+        <v>0.1892207000896842</v>
       </c>
       <c r="C98">
-        <v>0.02183033533249768</v>
+        <v>0.04225950877841685</v>
       </c>
       <c r="D98">
-        <v>-0.03579199926181899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1735459123298934</v>
+      </c>
+      <c r="E98">
+        <v>0.1545298046812043</v>
+      </c>
+      <c r="F98">
+        <v>-0.04665135558556022</v>
+      </c>
+      <c r="G98">
+        <v>0.1045677843674675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01177390114969282</v>
+        <v>0.006364862852796467</v>
       </c>
       <c r="C101">
-        <v>0.02460258913993243</v>
+        <v>0.02446940729694006</v>
       </c>
       <c r="D101">
-        <v>0.01272582959486235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01959565566618654</v>
+      </c>
+      <c r="E101">
+        <v>-0.0278622282095122</v>
+      </c>
+      <c r="F101">
+        <v>0.08639296297682325</v>
+      </c>
+      <c r="G101">
+        <v>0.007560905215765786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1205392051807162</v>
+        <v>0.1215088217214234</v>
       </c>
       <c r="C102">
-        <v>0.07406734640317705</v>
+        <v>0.1022097153580296</v>
       </c>
       <c r="D102">
-        <v>0.04841711473058968</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0510089891172906</v>
+      </c>
+      <c r="E102">
+        <v>0.01016259322293056</v>
+      </c>
+      <c r="F102">
+        <v>0.04058245051022302</v>
+      </c>
+      <c r="G102">
+        <v>0.0256623321047697</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
